--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.139245</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N2">
-        <v>0.417735</v>
+        <v>0.252773</v>
       </c>
       <c r="O2">
-        <v>0.01212793695325064</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P2">
-        <v>0.01283499108585158</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q2">
-        <v>0.05408294366</v>
+        <v>0.0327257900768889</v>
       </c>
       <c r="R2">
-        <v>0.48674649294</v>
+        <v>0.2945321106920001</v>
       </c>
       <c r="S2">
-        <v>0.01212793695325064</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="T2">
-        <v>0.01283499108585158</v>
+        <v>0.008027752567511702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +623,10 @@
         <v>28.142075</v>
       </c>
       <c r="O3">
-        <v>0.8170378621222814</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P3">
-        <v>0.8646708601442703</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q3">
         <v>3.643473150922223</v>
@@ -638,10 +635,10 @@
         <v>32.79125835830001</v>
       </c>
       <c r="S3">
-        <v>0.8170378621222814</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="T3">
-        <v>0.8646708601442703</v>
+        <v>0.8937569077249424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006356333333333333</v>
+        <v>1.534105</v>
       </c>
       <c r="N4">
-        <v>0.019069</v>
+        <v>3.06821</v>
       </c>
       <c r="O4">
-        <v>0.0005536228225107701</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P4">
-        <v>0.0005858988234553099</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q4">
-        <v>0.002468808341777778</v>
+        <v>0.5958484274733334</v>
       </c>
       <c r="R4">
-        <v>0.022219275076</v>
+        <v>3.57509056484</v>
       </c>
       <c r="S4">
-        <v>0.0005536228225107701</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="T4">
-        <v>0.0005858988234553099</v>
+        <v>0.09744249071366434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,96 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.897453</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N5">
-        <v>3.794906</v>
+        <v>0.024335</v>
       </c>
       <c r="O5">
-        <v>0.1652640335793479</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P5">
-        <v>0.1165992427774658</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q5">
-        <v>0.7369732751373335</v>
+        <v>0.003150582148888889</v>
       </c>
       <c r="R5">
-        <v>4.421839650824</v>
+        <v>0.02835523934</v>
       </c>
       <c r="S5">
-        <v>0.1652640335793479</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="T5">
-        <v>0.1165992427774658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.3884013333333334</v>
-      </c>
-      <c r="H6">
-        <v>1.165204</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.05759666666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.17279</v>
-      </c>
-      <c r="O6">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="P6">
-        <v>0.005309007168957103</v>
-      </c>
-      <c r="Q6">
-        <v>0.02237062212888889</v>
-      </c>
-      <c r="R6">
-        <v>0.20133559916</v>
-      </c>
-      <c r="S6">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="T6">
-        <v>0.005309007168957103</v>
+        <v>0.0007728489938814559</v>
       </c>
     </row>
   </sheetData>
